--- a/UTEM_septiembre/resultados_estadisticas.xlsx
+++ b/UTEM_septiembre/resultados_estadisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,328 +468,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_A (kWatts)</t>
+          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.027200000000001</v>
+        <v>4.7852</v>
       </c>
       <c r="D2" t="n">
-        <v>1.018969890062974</v>
+        <v>0.3608312306542855</v>
       </c>
       <c r="E2" t="n">
-        <v>1.540912882017886</v>
+        <v>1.12849493089021</v>
       </c>
       <c r="F2" t="n">
-        <v>2.63546</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_B (kWatts)</t>
+          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.566800000000001</v>
+        <v>0.0243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9811279752374853</v>
+        <v>0.01927510940335148</v>
       </c>
       <c r="E3" t="n">
-        <v>1.321107424777476</v>
+        <v>0.007288663879310821</v>
       </c>
       <c r="F3" t="n">
-        <v>2.44598</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTeM CIER -Mains_C (kWatts)</t>
+          <t>Air Conditioner-AC Rack (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0017</v>
+        <v>0.0003</v>
       </c>
       <c r="C4" t="n">
-        <v>3.7935</v>
+        <v>0.71</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5240995517130964</v>
+        <v>0.2402857508805636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5409372801464393</v>
+        <v>0.1272445619549058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.90128</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
+          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7852</v>
+        <v>4.1262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3608312306542855</v>
+        <v>0.3793188600704451</v>
       </c>
       <c r="E5" t="n">
-        <v>1.12849493089021</v>
+        <v>1.077622764336188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0092</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0243</v>
+        <v>1.4085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01927510940335148</v>
+        <v>0.2238179634966379</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007288663879310821</v>
+        <v>0.2032770243146831</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0233</v>
+        <v>0.2948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Rack (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003</v>
+        <v>0.0007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.71</v>
+        <v>1.7428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2402857508805636</v>
+        <v>0.281516800085388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1272445619549058</v>
+        <v>0.3206648737329973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.359</v>
+        <v>0.6028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
+          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>4.1262</v>
+        <v>3.4492</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3793188600704451</v>
+        <v>0.3185792080264702</v>
       </c>
       <c r="E8" t="n">
-        <v>1.077622764336188</v>
+        <v>0.3367985651070649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0148</v>
+        <v>0.65264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
+          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4085</v>
+        <v>3.0056</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2238179634966379</v>
+        <v>0.3654926352865834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2032770243146831</v>
+        <v>0.8991467849459133</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2948</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
+          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0007</v>
+        <v>0.0004</v>
       </c>
       <c r="C10" t="n">
-        <v>1.7428</v>
+        <v>1.1721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281516800085388</v>
+        <v>0.099257893051553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3206648737329973</v>
+        <v>0.1971436948359644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6028</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
+          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
       <c r="C11" t="n">
-        <v>3.4492</v>
+        <v>2.8863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3185792080264702</v>
+        <v>0.1106753228733056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3367985651070649</v>
+        <v>0.1782559025447426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.65264</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
+          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0056</v>
+        <v>2.8261</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3654926352865834</v>
+        <v>0.2228314227772441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8991467849459133</v>
+        <v>0.7034572243274553</v>
       </c>
       <c r="F12" t="n">
-        <v>0.012</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
+          <t>Other-Circuit_12 (kWatts)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.1721</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.099257893051553</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1971436948359644</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
+          <t>Other-Circuit_13 (kWatts)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.8863</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1106753228733056</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1782559025447426</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
+          <t>Other-Circuit_14 (kWatts)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.8261</v>
+        <v>0.0383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2228314227772441</v>
+        <v>1.175152097342299e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7034572243274553</v>
+        <v>0.0006569266197922248</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other-Circuit_12 (kWatts)</t>
+          <t>Other-Circuit_15 (kWatts)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.294054861778204e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.0002561647672275345</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -798,88 +798,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Other-Circuit_13 (kWatts)</t>
+          <t>Other-Circuit_16 (kWatts)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.4564</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0006188387234496744</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.02994361336441823</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Other-Circuit_14 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0383</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.175152097342299e-05</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0006569266197922248</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.294054861778204e-06</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0002561647672275345</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.4564</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0006188387234496744</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.02994361336441823</v>
-      </c>
-      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/UTEM_septiembre/resultados_estadisticas.xlsx
+++ b/UTEM_septiembre/resultados_estadisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,353 +468,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Sala Maestros 1 (kWatts)</t>
+          <t>UTeM CIER -Mains_A (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="C2" t="n">
-        <v>4.7852</v>
+        <v>8.027200000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3608312306542855</v>
+        <v>1.018969890062974</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12849493089021</v>
+        <v>1.540912882017886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0092</v>
+        <v>2.63546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Direccion 1 (kWatts)</t>
+          <t>UTeM CIER -Mains_B (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0243</v>
+        <v>8.566800000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01927510940335148</v>
+        <v>0.9811279752374853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007288663879310821</v>
+        <v>1.321107424777476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0233</v>
+        <v>2.44598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Air Conditioner-AC Rack (kWatts)</t>
+          <t>UTeM CIER -Mains_C (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003</v>
+        <v>0.0017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.71</v>
+        <v>3.7935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2402857508805636</v>
+        <v>0.5240995517130964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1272445619549058</v>
+        <v>0.5409372801464393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.359</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Aula Medios (kWatts)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.1262</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3793188600704451</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.077622764336188</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0148</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.4085</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2238179634966379</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2032770243146831</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2948</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.7428</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.281516800085388</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3206648737329973</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6028</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UTeM CIER -Tab Secundario L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.4492</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3185792080264702</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3367985651070649</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.65264</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Sala Maestros 2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0056</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3654926352865834</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8991467849459133</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Direccion 2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.1721</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.099257893051553</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1971436948359644</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0272</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Sala Juntas (kWatts)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.8863</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1106753228733056</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1782559025447426</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1102</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Air Conditioner-AC Cubiculos (kWatts)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.8261</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.2228314227772441</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7034572243274553</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0016</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other-Circuit_12 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other-Circuit_13 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Other-Circuit_14 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0383</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.175152097342299e-05</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0006569266197922248</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.294054861778204e-06</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0002561647672275345</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.4564</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0006188387234496744</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02994361336441823</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+        <v>0.90128</v>
       </c>
     </row>
   </sheetData>
